--- a/Batch records.xlsx
+++ b/Batch records.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepository\ClimateVelocity_shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C4A25E-9BF9-4120-B20C-622B6676AC6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239B27BB-3D2C-444E-BB33-01F8A75C5ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{513F1855-1D4F-47D0-8AA2-B1D83B91CBA9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{513F1855-1D4F-47D0-8AA2-B1D83B91CBA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>batch_total</t>
   </si>
@@ -50,6 +51,12 @@
   </si>
   <si>
     <t>tictoc(seconds)</t>
+  </si>
+  <si>
+    <t>tictoc (seconds)</t>
+  </si>
+  <si>
+    <t>AVE</t>
   </si>
 </sst>
 </file>
@@ -1520,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293C93EE-8D9D-4571-96FC-235DD200D316}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:C13"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1707,7 +1714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE7A15C-6891-4236-9037-917EB79C18E5}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1897,4 +1904,127 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8AF9B5-F3AF-4728-B3B9-1E171622A046}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>250</v>
+      </c>
+      <c r="B2">
+        <v>249</v>
+      </c>
+      <c r="C2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>122.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>167</v>
+      </c>
+      <c r="C4">
+        <v>89.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>129</v>
+      </c>
+      <c r="C5">
+        <v>141.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>162</v>
+      </c>
+      <c r="C6">
+        <v>229.36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>215</v>
+      </c>
+      <c r="C7">
+        <v>137.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>49.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>210</v>
+      </c>
+      <c r="C10">
+        <v>164.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>187</v>
+      </c>
+      <c r="C11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>AVERAGE(C2:C11)</f>
+        <v>179.11100000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>